--- a/cocktails.xlsx
+++ b/cocktails.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66361E3-C375-495C-9F41-D4C0ABF55F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6852BFD-7857-45B9-A7C1-82D512826C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
-    <sheet name="cocktail.json" sheetId="1" r:id="rId1"/>
+    <sheet name="cocktails" sheetId="1" r:id="rId1"/>
+    <sheet name="beer" sheetId="2" r:id="rId2"/>
+    <sheet name="equipment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
   <si>
     <t>No</t>
   </si>
@@ -126,6 +128,276 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Flavour</t>
+  </si>
+  <si>
+    <t>Pornstar Martini</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>Vodka; Passionfruit purée; Vanilla syrup; Lime juice; Prosecco</t>
+  </si>
+  <si>
+    <t>Shake and fine strain, served with prosecco on side.</t>
+  </si>
+  <si>
+    <t>pornstar-martini.jpg</t>
+  </si>
+  <si>
+    <t>Fruity</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Tequila; Lime juice; Triple sec</t>
+  </si>
+  <si>
+    <t>Shake, strain, salt rim optional.</t>
+  </si>
+  <si>
+    <t>margarita.jpg</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>Whiskey Sour</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Old Fashioned</t>
+  </si>
+  <si>
+    <t>Whiskey; Lemon juice; Simple syrup; Egg white; Bitters</t>
+  </si>
+  <si>
+    <t>Dry shake, shake, strain over ice.</t>
+  </si>
+  <si>
+    <t>whiskey-sour.jpg</t>
+  </si>
+  <si>
+    <t>Whiskey; Sugar; Bitters</t>
+  </si>
+  <si>
+    <t>Stirred, large ice cube.</t>
+  </si>
+  <si>
+    <t>old-fashioned.jpg</t>
+  </si>
+  <si>
+    <t>Bitter</t>
+  </si>
+  <si>
+    <t>French Gimlet</t>
+  </si>
+  <si>
+    <t>Gin</t>
+  </si>
+  <si>
+    <t>Gin; Elderflower liqueur; Lime juice</t>
+  </si>
+  <si>
+    <t>Shake, strain into coupe.</t>
+  </si>
+  <si>
+    <t>french-gimlet.jpg</t>
+  </si>
+  <si>
+    <t>Floral</t>
+  </si>
+  <si>
+    <t>Clover Club</t>
+  </si>
+  <si>
+    <t>Gin; Lemon juice; Raspberry syrup; Egg white</t>
+  </si>
+  <si>
+    <t>Dry shake, shake, double strain.</t>
+  </si>
+  <si>
+    <t>clover-club.jpg</t>
+  </si>
+  <si>
+    <t>Elderflower Fizz</t>
+  </si>
+  <si>
+    <t>Highball</t>
+  </si>
+  <si>
+    <t>Gin; Elderflower syrup; Lemon juice; Soda</t>
+  </si>
+  <si>
+    <t>Built in highball over ice.</t>
+  </si>
+  <si>
+    <t>elderflower-fizz.jpg</t>
+  </si>
+  <si>
+    <t>Fig &amp; Licorice Caipirinha</t>
+  </si>
+  <si>
+    <t>Cachaça</t>
+  </si>
+  <si>
+    <t>Cachaça; Fresh fig; Licorice syrup; Lime</t>
+  </si>
+  <si>
+    <t>Muddle figs, shake, strain over ice.</t>
+  </si>
+  <si>
+    <t>fig-licorice-caipirinha.jpg</t>
+  </si>
+  <si>
+    <t>Herbal</t>
+  </si>
+  <si>
+    <t>Caipirinha</t>
+  </si>
+  <si>
+    <t>Cachaça; Lime; Sugar</t>
+  </si>
+  <si>
+    <t>Muddle lime, build in glass.</t>
+  </si>
+  <si>
+    <t>caipirinha.jpg</t>
+  </si>
+  <si>
+    <t>White Lady</t>
+  </si>
+  <si>
+    <t>Gin; Triple sec; Lemon juice</t>
+  </si>
+  <si>
+    <t>Shake, strain.</t>
+  </si>
+  <si>
+    <t>white-lady.jpg</t>
+  </si>
+  <si>
+    <t>Singapore Sling</t>
+  </si>
+  <si>
+    <t>Gin; Cherry brandy; Cointreau; Bénédictine; Pineapple juice; Grenadine; Bitters</t>
+  </si>
+  <si>
+    <t>Shake, strain over ice, top soda.</t>
+  </si>
+  <si>
+    <t>singapore-sling.jpg</t>
+  </si>
+  <si>
+    <t>Tropical</t>
+  </si>
+  <si>
+    <t>Bon Bon</t>
+  </si>
+  <si>
+    <t>Vodka; White chocolate liqueur; Cream</t>
+  </si>
+  <si>
+    <t>Shake, strain, garnish with cocoa.</t>
+  </si>
+  <si>
+    <t>bon-bon.jpg</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Bahama Daiquiri</t>
+  </si>
+  <si>
+    <t>White rum; Coconut cream; Pineapple juice; Lime juice</t>
+  </si>
+  <si>
+    <t>Shake and strain.</t>
+  </si>
+  <si>
+    <t>bahama-daiquiri.jpg</t>
+  </si>
+  <si>
+    <t>Bahama Mama</t>
+  </si>
+  <si>
+    <t>Rum; Coconut rum; Pineapple juice; Orange juice; Grenadine</t>
+  </si>
+  <si>
+    <t>Shake, strain, garnish cherry.</t>
+  </si>
+  <si>
+    <t>bahama-mama.jpg</t>
+  </si>
+  <si>
+    <t>Espresso Martini</t>
+  </si>
+  <si>
+    <t>Vodka; Coffee liqueur; Espresso; Sugar syrup</t>
+  </si>
+  <si>
+    <t>Shake, strain, garnish coffee beans.</t>
+  </si>
+  <si>
+    <t>espresso-martini.jpg</t>
+  </si>
+  <si>
+    <t>Negroni</t>
+  </si>
+  <si>
+    <t>Gin; Campari; Sweet vermouth</t>
+  </si>
+  <si>
+    <t>Stir, strain over ice.</t>
+  </si>
+  <si>
+    <t>negroni.jpg</t>
+  </si>
+  <si>
+    <t>Daiquiri</t>
+  </si>
+  <si>
+    <t>White rum; Lime juice; Simple syrup</t>
+  </si>
+  <si>
+    <t>daiquiri.jpg</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Gin; Maraschino liqueur; Crème de Violette; Lemon juice</t>
+  </si>
+  <si>
+    <t>aviation.jpg</t>
+  </si>
+  <si>
+    <t>Mai Tai</t>
+  </si>
+  <si>
+    <t>White rum; Dark rum; Lime juice; Orange curaçao; Orgeat</t>
+  </si>
+  <si>
+    <t>Shake, strain over crushed ice.</t>
+  </si>
+  <si>
+    <t>mai-tai.jpg</t>
+  </si>
+  <si>
+    <t>Cosmopolitan</t>
+  </si>
+  <si>
+    <t>Vodka; Triple sec; Cranberry juice; Lime juice</t>
+  </si>
+  <si>
+    <t>cosmopolitan.jpg</t>
   </si>
 </sst>
 </file>
@@ -491,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +781,7 @@
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -534,8 +806,11 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -561,7 +836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -587,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -613,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -634,9 +909,613 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4DA02F-846B-444F-B15E-6AB08FBC8131}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1469BC4-FD50-4FAB-AC21-54BD7B4562B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cocktails.xlsx
+++ b/cocktails.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6852BFD-7857-45B9-A7C1-82D512826C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F6A302-8ABD-4C9E-A675-6F68F87B063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
-    <sheet name="cocktails" sheetId="1" r:id="rId1"/>
-    <sheet name="beer" sheetId="2" r:id="rId2"/>
-    <sheet name="equipment" sheetId="3" r:id="rId3"/>
+    <sheet name="Cocktails" sheetId="1" r:id="rId1"/>
+    <sheet name="Beer" sheetId="2" r:id="rId2"/>
+    <sheet name="Equipment" sheetId="3" r:id="rId3"/>
+    <sheet name="Glasses" sheetId="4" r:id="rId4"/>
+    <sheet name="Snacks" sheetId="5" r:id="rId5"/>
+    <sheet name="Sundries" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>rhubarbarita.jpg</t>
-  </si>
-  <si>
     <t>Shake and fine strain.</t>
   </si>
   <si>
@@ -64,9 +64,6 @@
     <t>cocktails</t>
   </si>
   <si>
-    <t>luau.jpg</t>
-  </si>
-  <si>
     <t>Shake and strain over pebble ice.</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Luau</t>
   </si>
   <si>
-    <t>conquistador.jpg</t>
-  </si>
-  <si>
     <t>Dry shake, double strain into coupe.</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
     <t>Conquistador</t>
   </si>
   <si>
-    <t>fresa-verde.jpg</t>
-  </si>
-  <si>
-    <t>Muddle strawberries and pepper slices in lime juice...</t>
-  </si>
-  <si>
     <t>Blanco Tequila; Lime juice; Pomegranate Molasses; Strawberries; Green pepper</t>
   </si>
   <si>
@@ -139,30 +127,12 @@
     <t>Vodka</t>
   </si>
   <si>
-    <t>Vodka; Passionfruit purée; Vanilla syrup; Lime juice; Prosecco</t>
-  </si>
-  <si>
-    <t>Shake and fine strain, served with prosecco on side.</t>
-  </si>
-  <si>
-    <t>pornstar-martini.jpg</t>
-  </si>
-  <si>
-    <t>Fruity</t>
-  </si>
-  <si>
     <t>Margarita</t>
   </si>
   <si>
     <t>Tequila; Lime juice; Triple sec</t>
   </si>
   <si>
-    <t>Shake, strain, salt rim optional.</t>
-  </si>
-  <si>
-    <t>margarita.jpg</t>
-  </si>
-  <si>
     <t>Sour</t>
   </si>
   <si>
@@ -178,24 +148,9 @@
     <t>Whiskey; Lemon juice; Simple syrup; Egg white; Bitters</t>
   </si>
   <si>
-    <t>Dry shake, shake, strain over ice.</t>
-  </si>
-  <si>
-    <t>whiskey-sour.jpg</t>
-  </si>
-  <si>
     <t>Whiskey; Sugar; Bitters</t>
   </si>
   <si>
-    <t>Stirred, large ice cube.</t>
-  </si>
-  <si>
-    <t>old-fashioned.jpg</t>
-  </si>
-  <si>
-    <t>Bitter</t>
-  </si>
-  <si>
     <t>French Gimlet</t>
   </si>
   <si>
@@ -205,42 +160,18 @@
     <t>Gin; Elderflower liqueur; Lime juice</t>
   </si>
   <si>
-    <t>Shake, strain into coupe.</t>
-  </si>
-  <si>
-    <t>french-gimlet.jpg</t>
-  </si>
-  <si>
-    <t>Floral</t>
-  </si>
-  <si>
     <t>Clover Club</t>
   </si>
   <si>
     <t>Gin; Lemon juice; Raspberry syrup; Egg white</t>
   </si>
   <si>
-    <t>Dry shake, shake, double strain.</t>
-  </si>
-  <si>
-    <t>clover-club.jpg</t>
-  </si>
-  <si>
     <t>Elderflower Fizz</t>
   </si>
   <si>
     <t>Highball</t>
   </si>
   <si>
-    <t>Gin; Elderflower syrup; Lemon juice; Soda</t>
-  </si>
-  <si>
-    <t>Built in highball over ice.</t>
-  </si>
-  <si>
-    <t>elderflower-fizz.jpg</t>
-  </si>
-  <si>
     <t>Fig &amp; Licorice Caipirinha</t>
   </si>
   <si>
@@ -250,27 +181,12 @@
     <t>Cachaça; Fresh fig; Licorice syrup; Lime</t>
   </si>
   <si>
-    <t>Muddle figs, shake, strain over ice.</t>
-  </si>
-  <si>
-    <t>fig-licorice-caipirinha.jpg</t>
-  </si>
-  <si>
-    <t>Herbal</t>
-  </si>
-  <si>
     <t>Caipirinha</t>
   </si>
   <si>
     <t>Cachaça; Lime; Sugar</t>
   </si>
   <si>
-    <t>Muddle lime, build in glass.</t>
-  </si>
-  <si>
-    <t>caipirinha.jpg</t>
-  </si>
-  <si>
     <t>White Lady</t>
   </si>
   <si>
@@ -280,75 +196,30 @@
     <t>Shake, strain.</t>
   </si>
   <si>
-    <t>white-lady.jpg</t>
-  </si>
-  <si>
     <t>Singapore Sling</t>
   </si>
   <si>
     <t>Gin; Cherry brandy; Cointreau; Bénédictine; Pineapple juice; Grenadine; Bitters</t>
   </si>
   <si>
-    <t>Shake, strain over ice, top soda.</t>
-  </si>
-  <si>
-    <t>singapore-sling.jpg</t>
-  </si>
-  <si>
-    <t>Tropical</t>
-  </si>
-  <si>
     <t>Bon Bon</t>
   </si>
   <si>
-    <t>Vodka; White chocolate liqueur; Cream</t>
-  </si>
-  <si>
-    <t>Shake, strain, garnish with cocoa.</t>
-  </si>
-  <si>
-    <t>bon-bon.jpg</t>
-  </si>
-  <si>
-    <t>Sweet</t>
-  </si>
-  <si>
     <t>Bahama Daiquiri</t>
   </si>
   <si>
-    <t>White rum; Coconut cream; Pineapple juice; Lime juice</t>
-  </si>
-  <si>
-    <t>Shake and strain.</t>
-  </si>
-  <si>
-    <t>bahama-daiquiri.jpg</t>
-  </si>
-  <si>
     <t>Bahama Mama</t>
   </si>
   <si>
     <t>Rum; Coconut rum; Pineapple juice; Orange juice; Grenadine</t>
   </si>
   <si>
-    <t>Shake, strain, garnish cherry.</t>
-  </si>
-  <si>
-    <t>bahama-mama.jpg</t>
-  </si>
-  <si>
     <t>Espresso Martini</t>
   </si>
   <si>
     <t>Vodka; Coffee liqueur; Espresso; Sugar syrup</t>
   </si>
   <si>
-    <t>Shake, strain, garnish coffee beans.</t>
-  </si>
-  <si>
-    <t>espresso-martini.jpg</t>
-  </si>
-  <si>
     <t>Negroni</t>
   </si>
   <si>
@@ -358,46 +229,229 @@
     <t>Stir, strain over ice.</t>
   </si>
   <si>
-    <t>negroni.jpg</t>
-  </si>
-  <si>
     <t>Daiquiri</t>
   </si>
   <si>
-    <t>White rum; Lime juice; Simple syrup</t>
-  </si>
-  <si>
-    <t>daiquiri.jpg</t>
-  </si>
-  <si>
     <t>Aviation</t>
   </si>
   <si>
     <t>Gin; Maraschino liqueur; Crème de Violette; Lemon juice</t>
   </si>
   <si>
-    <t>aviation.jpg</t>
-  </si>
-  <si>
     <t>Mai Tai</t>
   </si>
   <si>
-    <t>White rum; Dark rum; Lime juice; Orange curaçao; Orgeat</t>
-  </si>
-  <si>
-    <t>Shake, strain over crushed ice.</t>
-  </si>
-  <si>
-    <t>mai-tai.jpg</t>
-  </si>
-  <si>
     <t>Cosmopolitan</t>
   </si>
   <si>
     <t>Vodka; Triple sec; Cranberry juice; Lime juice</t>
   </si>
   <si>
-    <t>cosmopolitan.jpg</t>
+    <t>cocktail-fresa-verde.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-conquistador.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-luau.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-rhubarbarita.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-pornstar-martini.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-margarita.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-whiskey-sour.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-french-gimlet.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-clover-club.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-elderflower-fizz.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-fig-licorice-caipirinha.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-caipirinha.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-white-lady.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-bon-bon.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-bahama-daiquiri.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-bahama-mama.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-espresso-martini.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-negroni.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-daiquiri.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-aviation.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-mai-tai.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-cosmopolitan.jpg</t>
+  </si>
+  <si>
+    <t>French Fizz</t>
+  </si>
+  <si>
+    <t>Flute</t>
+  </si>
+  <si>
+    <t>Gin; St Germain; Lemon juice; Simple syrup; Prosecco</t>
+  </si>
+  <si>
+    <t>Refreshingly fruity with vegetal notes.</t>
+  </si>
+  <si>
+    <t>A classic that needs no introduction!</t>
+  </si>
+  <si>
+    <t>Vodka; Passoa; Passionfruit purée; Orange juice; Egg white</t>
+  </si>
+  <si>
+    <t>Classic Mexican favourite with many variations.</t>
+  </si>
+  <si>
+    <t>Strawberry; Passionfruit; Mango; Chili; Raspberry; Pineapple; Smokey; Frozen</t>
+  </si>
+  <si>
+    <t>Amaretto Sour</t>
+  </si>
+  <si>
+    <t>Tart and full of flavour, with a frothy head.</t>
+  </si>
+  <si>
+    <t>Irish; Bourbon; Grapefruit; Cherry</t>
+  </si>
+  <si>
+    <t>Refreshing and floral, elevates a gin.</t>
+  </si>
+  <si>
+    <t>Sweet and tart with a foamy head. Raspberry-forward.</t>
+  </si>
+  <si>
+    <t>Gin; St Germain; Lemon juice; Simple syrup; Egg white; Soda water</t>
+  </si>
+  <si>
+    <t>An impressively foamy drink flavoured with elderflower.</t>
+  </si>
+  <si>
+    <t>Showcases the taste of fresh figs with an earthy sweetness and freshness.</t>
+  </si>
+  <si>
+    <t>A refreshing Brazilian classic.</t>
+  </si>
+  <si>
+    <t>Vanilla and passionfruit; Raspberry; Strawberry; Mango; Pineapple; Banana</t>
+  </si>
+  <si>
+    <t>7 ingredients combine to make this classic - worth the work.</t>
+  </si>
+  <si>
+    <t>cocktail-singapore-sling.jpg</t>
+  </si>
+  <si>
+    <t>Taste like the childhood treat - even better when flavoured.</t>
+  </si>
+  <si>
+    <t>Vodka; Butterscotch liqueur; Lemon juice; Vanilla syrup</t>
+  </si>
+  <si>
+    <t>Strawberry; Lemon</t>
+  </si>
+  <si>
+    <t>Rum; Coconut rum; Coffee liqueur; Pineapple juice; Lime juice</t>
+  </si>
+  <si>
+    <t>Rocks</t>
+  </si>
+  <si>
+    <t>Delicously fruity, best with pot still rum.</t>
+  </si>
+  <si>
+    <t>Fruity, tropical, refreshing.</t>
+  </si>
+  <si>
+    <t>The only way to drink cold coffee.</t>
+  </si>
+  <si>
+    <t>Hazelnut; Vanilla; Rum; Chocolate Orange; Pecan</t>
+  </si>
+  <si>
+    <t>Rum; Lime juice; Simple syrup</t>
+  </si>
+  <si>
+    <t>Simple, tasty way to showcase a rum.</t>
+  </si>
+  <si>
+    <t>Nuclear; Strawberry; Raspberry; Pineapple; Frozen; Mango; Banana</t>
+  </si>
+  <si>
+    <t>Who orders this?</t>
+  </si>
+  <si>
+    <t>Rum; Lime juice; Orange curaçao; Orgeat</t>
+  </si>
+  <si>
+    <t>Incredible tiki classic, nutty almond combined with lime.</t>
+  </si>
+  <si>
+    <t>Mango; Pineapple</t>
+  </si>
+  <si>
+    <t>It's pink!</t>
+  </si>
+  <si>
+    <t>Elegant, sparkling and gin. Colour changing too.</t>
+  </si>
+  <si>
+    <t>cocktail-french-fizz.jpg</t>
+  </si>
+  <si>
+    <t>Cara Cara</t>
+  </si>
+  <si>
+    <t>Vodka; Cointreau; Lemon juice; Clementine juice; Orange syrup</t>
+  </si>
+  <si>
+    <t>Four types of orange combine for this taste of Florida</t>
+  </si>
+  <si>
+    <t>cocktail-cara-cara.jpg</t>
+  </si>
+  <si>
+    <t>Name, Type, Image, ABV, Blurb</t>
+  </si>
+  <si>
+    <t>Name, Image, Blurb</t>
+  </si>
+  <si>
+    <t>Name, Image, Capacity, Blurb</t>
+  </si>
+  <si>
+    <t>Name, Image, Price, Blurb</t>
   </si>
 </sst>
 </file>
@@ -441,13 +495,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,133 +836,134 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -913,280 +971,270 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>80</v>
@@ -1195,300 +1243,343 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1500,10 +1591,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4DA02F-846B-444F-B15E-6AB08FBC8131}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1515,7 +1614,67 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93446264-B9B7-4DA7-B7F9-A7A72E90E0BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B6401-96B1-4849-B63E-2E32810EA924}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3F5C3-BC76-4BDF-809F-51355181FF25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cocktails.xlsx
+++ b/cocktails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F6A302-8ABD-4C9E-A675-6F68F87B063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F7A5EA-8FA4-451B-B1C3-2913E87C0FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="1" r:id="rId1"/>
@@ -127,6 +127,9 @@
     <t>Vodka</t>
   </si>
   <si>
+    <t>pornstar-martini.jpg</t>
+  </si>
+  <si>
     <t>Margarita</t>
   </si>
   <si>
@@ -259,9 +262,6 @@
     <t>cocktail-rhubarbarita.jpg</t>
   </si>
   <si>
-    <t>cocktail-pornstar-martini.jpg</t>
-  </si>
-  <si>
     <t>cocktail-margarita.jpg</t>
   </si>
   <si>
@@ -277,9 +277,6 @@
     <t>cocktail-elderflower-fizz.jpg</t>
   </si>
   <si>
-    <t>cocktail-fig-licorice-caipirinha.jpg</t>
-  </si>
-  <si>
     <t>cocktail-caipirinha.jpg</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t>Name, Image, Price, Blurb</t>
+  </si>
+  <si>
+    <t>cocktail-fig-&amp;-licorice-caipirinha.jpg</t>
   </si>
 </sst>
 </file>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,10 +882,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1007,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>73</v>
@@ -1022,24 +1022,24 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>74</v>
@@ -1051,24 +1051,24 @@
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>74</v>
@@ -1080,24 +1080,24 @@
         <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>75</v>
@@ -1112,19 +1112,19 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -1139,19 +1139,19 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>77</v>
@@ -1166,22 +1166,22 @@
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -1193,51 +1193,51 @@
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -1249,22 +1249,22 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
@@ -1285,27 +1285,27 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1314,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1341,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
@@ -1368,42 +1368,42 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -1424,42 +1424,42 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -1471,36 +1471,36 @@
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
@@ -1509,13 +1509,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -1527,22 +1527,22 @@
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -1553,12 +1553,12 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -1567,13 +1567,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>0</v>
@@ -1599,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1617,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1665,13 +1665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3F5C3-BC76-4BDF-809F-51355181FF25}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/cocktails.xlsx
+++ b/cocktails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F7A5EA-8FA4-451B-B1C3-2913E87C0FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929852F5-28B8-4D8C-B16A-E84D036E42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
   <si>
     <t>No</t>
   </si>
@@ -319,6 +319,9 @@
     <t>Gin; St Germain; Lemon juice; Simple syrup; Prosecco</t>
   </si>
   <si>
+    <t>Blurb</t>
+  </si>
+  <si>
     <t>Refreshingly fruity with vegetal notes.</t>
   </si>
   <si>
@@ -439,19 +442,37 @@
     <t>cocktail-cara-cara.jpg</t>
   </si>
   <si>
-    <t>Name, Type, Image, ABV, Blurb</t>
-  </si>
-  <si>
-    <t>Name, Image, Blurb</t>
-  </si>
-  <si>
-    <t>Name, Image, Capacity, Blurb</t>
-  </si>
-  <si>
-    <t>Name, Image, Price, Blurb</t>
-  </si>
-  <si>
     <t>cocktail-fig-&amp;-licorice-caipirinha.jpg</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Amaretto</t>
+  </si>
+  <si>
+    <t>Amaretto; Lemon juice; Simple syrup; Bitters</t>
+  </si>
+  <si>
+    <t>A delicously sweet guilty pleasure.</t>
+  </si>
+  <si>
+    <t>cocktail-amaretto-sour.jpg</t>
+  </si>
+  <si>
+    <t>Bourbon</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>ABV</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -822,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
@@ -892,6 +913,9 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -919,6 +943,9 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -945,6 +972,9 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -968,6 +998,12 @@
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -980,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
@@ -994,7 +1030,9 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1010,7 +1048,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>73</v>
@@ -1022,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1039,7 +1077,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>74</v>
@@ -1068,7 +1106,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>74</v>
@@ -1080,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1097,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>75</v>
@@ -1108,7 +1146,9 @@
       <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1124,7 +1164,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -1135,7 +1175,9 @@
       <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1148,10 +1190,10 @@
         <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>77</v>
@@ -1162,7 +1204,9 @@
       <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1178,10 +1222,10 @@
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -1189,7 +1233,9 @@
       <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1205,7 +1251,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>78</v>
@@ -1217,7 +1263,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1245,7 +1291,9 @@
       <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1255,16 +1303,16 @@
         <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -1272,7 +1320,9 @@
       <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1285,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>80</v>
@@ -1300,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1314,10 +1364,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>81</v>
@@ -1328,7 +1378,9 @@
       <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1344,7 +1396,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>82</v>
@@ -1355,7 +1407,9 @@
       <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1371,7 +1425,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>83</v>
@@ -1383,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1411,7 +1465,9 @@
       <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1424,10 +1480,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>85</v>
@@ -1439,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,7 +1512,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>86</v>
@@ -1467,7 +1523,9 @@
       <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1480,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>87</v>
@@ -1495,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1512,7 +1570,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>88</v>
@@ -1523,7 +1581,9 @@
       <c r="H25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1539,10 +1599,10 @@
         <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -1550,15 +1610,42 @@
       <c r="H26" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -1567,19 +1654,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1589,17 +1679,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4DA02F-846B-444F-B15E-6AB08FBC8131}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1609,15 +1711,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1469BC4-FD50-4FAB-AC21-54BD7B4562B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1627,15 +1737,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93446264-B9B7-4DA7-B7F9-A7A72E90E0BF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1645,15 +1766,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B6401-96B1-4849-B63E-2E32810EA924}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1663,15 +1795,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3F5C3-BC76-4BDF-809F-51355181FF25}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/cocktails.xlsx
+++ b/cocktails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929852F5-28B8-4D8C-B16A-E84D036E42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FCCCB-CEF8-4C0C-BC4B-73CD76619EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Equipment" sheetId="3" r:id="rId3"/>
     <sheet name="Glasses" sheetId="4" r:id="rId4"/>
     <sheet name="Snacks" sheetId="5" r:id="rId5"/>
-    <sheet name="Sundries" sheetId="6" r:id="rId6"/>
+    <sheet name="Misc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -516,16 +516,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -1569,7 +1566,7 @@
       <c r="D25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1598,7 +1595,7 @@
       <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1627,7 +1624,7 @@
       <c r="D27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1656,7 +1653,7 @@
       <c r="D28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1797,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3F5C3-BC76-4BDF-809F-51355181FF25}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
